--- a/public/reports/stock_level_report.xlsx
+++ b/public/reports/stock_level_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t xml:space="preserve"> STOCK LEVEL</t>
   </si>
@@ -44,25 +44,115 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Syringe 3ml (pack of 100)</t>
+  </si>
+  <si>
+    <t>CLN1404</t>
+  </si>
+  <si>
+    <t>MWKA</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>"Giving Sets Blood Solution</t>
+  </si>
+  <si>
+    <t>CLN1002</t>
+  </si>
+  <si>
+    <t>Accu-check control-Pack of 50</t>
+  </si>
+  <si>
+    <t>CLN1027</t>
+  </si>
+  <si>
+    <t>KY7</t>
+  </si>
+  <si>
+    <t>Alcohol 99.9% of 5 Litres</t>
+  </si>
+  <si>
+    <t>CLN1038</t>
+  </si>
+  <si>
+    <t>DBI-CRTA200</t>
+  </si>
+  <si>
+    <t>Blood Lancets 23G (100 pc)</t>
+  </si>
+  <si>
+    <t>CLN1059</t>
+  </si>
+  <si>
+    <t>dghg</t>
+  </si>
+  <si>
     <t>First Response Malaria Antigen - Pack of 25</t>
   </si>
   <si>
     <t>CLN1001</t>
   </si>
   <si>
-    <t>MWKA</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>Accu-check control-Pack of 50</t>
-  </si>
-  <si>
-    <t>CLN1027</t>
-  </si>
-  <si>
-    <t>CRT55</t>
+    <t>Syringes 10ml-Pack of 50</t>
+  </si>
+  <si>
+    <t>CLN1004</t>
+  </si>
+  <si>
+    <t>Toner HP 103A (Black)</t>
+  </si>
+  <si>
+    <t>STA3041</t>
+  </si>
+  <si>
+    <t>Gauze swabs (100 pc)</t>
+  </si>
+  <si>
+    <t>CLN1133</t>
+  </si>
+  <si>
+    <t>Microscope slides</t>
+  </si>
+  <si>
+    <t>LAB2119</t>
+  </si>
+  <si>
+    <t>Cryo Tags 27mm x  13mm, Thermal Transfer Cryo-Tags</t>
+  </si>
+  <si>
+    <t>LAB2446</t>
+  </si>
+  <si>
+    <t>AU 480 WASH SOLUTION</t>
+  </si>
+  <si>
+    <t>LAB2907</t>
+  </si>
+  <si>
+    <t>SK992</t>
+  </si>
+  <si>
+    <t>Cryo vials 1.8ml pack of 450</t>
+  </si>
+  <si>
+    <t>LAB3049</t>
+  </si>
+  <si>
+    <t>Magnesium sulphate</t>
+  </si>
+  <si>
+    <t>LAB2159</t>
+  </si>
+  <si>
+    <t>20H174107</t>
+  </si>
+  <si>
+    <t>Pasteur Pipette 1ml</t>
+  </si>
+  <si>
+    <t>LAB2188</t>
   </si>
   <si>
     <t>Surfanios Premium 5L</t>
@@ -71,109 +161,217 @@
     <t>CLN1234</t>
   </si>
   <si>
-    <t>DEG56</t>
-  </si>
-  <si>
-    <t>Ampoule Breaker</t>
-  </si>
-  <si>
-    <t>CLN1260</t>
-  </si>
-  <si>
-    <t>Paediatic 1.3ml</t>
-  </si>
-  <si>
-    <t>CLN1300</t>
-  </si>
-  <si>
-    <t>MWKW</t>
-  </si>
-  <si>
-    <t>Stethoscope Bag</t>
-  </si>
-  <si>
-    <t>CLN1389</t>
-  </si>
-  <si>
-    <t>KI234</t>
-  </si>
-  <si>
-    <t>Digital Thermometer Shealths - Pack of 100</t>
-  </si>
-  <si>
-    <t>CLN1415</t>
-  </si>
-  <si>
-    <t>SK15001</t>
-  </si>
-  <si>
-    <t>Disposable Dust Mask</t>
-  </si>
-  <si>
-    <t>CLN1522</t>
-  </si>
-  <si>
-    <t>TK01</t>
-  </si>
-  <si>
-    <t>BDH 150ml bottle</t>
-  </si>
-  <si>
-    <t>LAB2034</t>
-  </si>
-  <si>
-    <t>Ht6</t>
-  </si>
-  <si>
-    <t>Oil Immersion</t>
-  </si>
-  <si>
-    <t>LAB2179</t>
-  </si>
-  <si>
-    <t>Costar Assay Plate 96 Well Flat Bottom</t>
-  </si>
-  <si>
-    <t>LAB2445</t>
-  </si>
-  <si>
-    <t>TK03</t>
-  </si>
-  <si>
-    <t>ISE Na Selective check</t>
-  </si>
-  <si>
-    <t>LAB2491</t>
-  </si>
-  <si>
-    <t>SG0909</t>
-  </si>
-  <si>
-    <t>Serogical Pipette (50ml)</t>
-  </si>
-  <si>
-    <t>LAB2738</t>
-  </si>
-  <si>
-    <t>DEERRE</t>
-  </si>
-  <si>
-    <t>Mag Min Kit</t>
-  </si>
-  <si>
-    <t>LAB2789</t>
-  </si>
-  <si>
-    <t>PO98f</t>
-  </si>
-  <si>
-    <t>Plain Skirted Tubes 0.5ml</t>
-  </si>
-  <si>
-    <t>LAB2807</t>
-  </si>
-  <si>
-    <t>SK0123</t>
+    <t>G068065</t>
+  </si>
+  <si>
+    <t>Agar, Nutrient, 500g</t>
+  </si>
+  <si>
+    <t>LAB2177</t>
+  </si>
+  <si>
+    <t>Autoclave Bags 610 x 810 mm (200pc)</t>
+  </si>
+  <si>
+    <t>LAB2027</t>
+  </si>
+  <si>
+    <t>511-17</t>
+  </si>
+  <si>
+    <t>Blue pipette tips P1000</t>
+  </si>
+  <si>
+    <t>LAB2518</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Auramine</t>
+  </si>
+  <si>
+    <t>LAB2026</t>
+  </si>
+  <si>
+    <t>5LB553116V</t>
+  </si>
+  <si>
+    <t>BD MGIT Identification test</t>
+  </si>
+  <si>
+    <t>LAB2031</t>
+  </si>
+  <si>
+    <t>Immersion oil</t>
+  </si>
+  <si>
+    <t>LAB2314</t>
+  </si>
+  <si>
+    <t>Glycerol 500ml</t>
+  </si>
+  <si>
+    <t>LAB2125</t>
+  </si>
+  <si>
+    <t>Methylene Blue</t>
+  </si>
+  <si>
+    <t>LAB3115</t>
+  </si>
+  <si>
+    <t>FN250155509</t>
+  </si>
+  <si>
+    <t>Malachite green</t>
+  </si>
+  <si>
+    <t>LAB2160</t>
+  </si>
+  <si>
+    <t>SHBQ5037</t>
+  </si>
+  <si>
+    <t>Dimethyl Sulfoxide (1L)</t>
+  </si>
+  <si>
+    <t>LAB2727</t>
+  </si>
+  <si>
+    <t>RNBL2071</t>
+  </si>
+  <si>
+    <t>Phosphate Buffered Saline TABLETS</t>
+  </si>
+  <si>
+    <t>LAB3079</t>
+  </si>
+  <si>
+    <t>SLCH0989</t>
+  </si>
+  <si>
+    <t>Carbol Fuchsin</t>
+  </si>
+  <si>
+    <t>LAB3116</t>
+  </si>
+  <si>
+    <t>FN1302128</t>
+  </si>
+  <si>
+    <t>N95 Face Mask - Pack of 10</t>
+  </si>
+  <si>
+    <t>CLN1471</t>
+  </si>
+  <si>
+    <t>Cryo Boxes 10x10</t>
+  </si>
+  <si>
+    <t>LAB2068</t>
+  </si>
+  <si>
+    <t>GlovePlus Nitrile Gloves PF Medium Blue</t>
+  </si>
+  <si>
+    <t>Centrifuge tubes 15ml</t>
+  </si>
+  <si>
+    <t>LAB2359</t>
+  </si>
+  <si>
+    <t>GeneXpert Ultra Catridges</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t>GeneXpert XDR</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>LJ Media Tubes</t>
+  </si>
+  <si>
+    <t>L-Asparagire - (500g)</t>
+  </si>
+  <si>
+    <t>SLCN1652</t>
+  </si>
+  <si>
+    <t>MIGIT Supplement Kit</t>
+  </si>
+  <si>
+    <t>NALC</t>
+  </si>
+  <si>
+    <t>071M1589V</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>MGIT Tubes</t>
+  </si>
+  <si>
+    <t>"Fisher Plug</t>
+  </si>
+  <si>
+    <t>MAI8087</t>
+  </si>
+  <si>
+    <t>DFR567</t>
+  </si>
+  <si>
+    <t>BD BACTEC MGIT 960 Supplement Kit</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>Cryo Boxes 9x9</t>
+  </si>
+  <si>
+    <t>"Nitrile Gloves Examination Medium</t>
+  </si>
+  <si>
+    <t>CLN1431</t>
+  </si>
+  <si>
+    <t>MGIT Identification Test (Pack of 25)</t>
+  </si>
+  <si>
+    <t>LAB2749</t>
+  </si>
+  <si>
+    <t>1.8 ml sterile cryovials, 9 subpacks of 50</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>Lens cleaning tissue</t>
+  </si>
+  <si>
+    <t>LAB2151</t>
+  </si>
+  <si>
+    <t>Sodium Hydroxide Pellets/Pastilles</t>
+  </si>
+  <si>
+    <t>22E254137</t>
+  </si>
+  <si>
+    <t>Di-sodium Hydrogen Phosphate anhydrous</t>
+  </si>
+  <si>
+    <t>LAB2958</t>
+  </si>
+  <si>
+    <t>23C064114</t>
   </si>
 </sst>
 </file>
@@ -269,8 +467,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Expired_Data" ref="A8:H24" headerRowCount="1" totalsRowCount="0">
-  <autoFilter ref="A8:H24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Expired_Data" ref="A8:H57" headerRowCount="1" totalsRowCount="0">
+  <autoFilter ref="A8:H57"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Code"/>
@@ -575,7 +773,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D7" sqref="D7"/>
@@ -583,7 +781,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="18.9954" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="51.845" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="60.128" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -634,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="H9">
-        <v>1749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -644,48 +842,48 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="H11">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
-        <v>56</v>
-      </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -702,7 +900,7 @@
         <v>12</v>
       </c>
       <c r="H13">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -713,166 +911,658 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="H14">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="H16">
-        <v>595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C18">
-        <v>58585</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
+        <v>20220215</v>
       </c>
       <c r="H18">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>3400</v>
       </c>
       <c r="H19">
-        <v>914</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>179909</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="H21">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>1690408</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C25">
+        <v>3570613</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23">
-        <v>3853</v>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>23173006</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>1.0469901</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>102606828</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39">
+        <v>220406</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41">
+        <v>1000717780</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42">
+        <v>1000728897</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43">
+        <v>3040053</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45">
+        <v>2293457</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47">
+        <v>3011177</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49">
+        <v>3278197</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50">
+        <v>7429642010</v>
+      </c>
+      <c r="D50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51">
+        <v>52750210</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52">
+        <v>23214001</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53">
+        <v>175450</v>
+      </c>
+      <c r="D53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54">
+        <v>1011379</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
